--- a/Pratique/Planing.xlsx
+++ b/Pratique/Planing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasiukiewiczT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasiukiewiczT\Downloads\Pratique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{252AE1A8-72E2-4DCB-94CC-9A4DF205267C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD374138-6501-4CEC-80E5-ECB49B3AD2B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4802542E-AE90-4B5C-90B2-4E2C98054980}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -936,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1016,7 +1023,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,24 +1075,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,34 +1104,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,7 +1434,7 @@
   <dimension ref="A2:BD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+      <selection activeCell="AX28" sqref="AX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,158 +1461,138 @@
       <c r="BD2" s="3"/>
     </row>
     <row r="3" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AZ3" s="3"/>
+      <c r="AR3" s="3"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
       <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
     </row>
     <row r="4" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="60">
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="89">
         <v>44792</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="60">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="89">
         <v>44799</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="60">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="89">
         <v>44806</v>
       </c>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="60">
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="89">
         <v>44813</v>
       </c>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="60">
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="89">
         <v>44820</v>
       </c>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="60">
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="89">
         <v>44827</v>
       </c>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="60">
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="89">
         <v>44834</v>
       </c>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="60">
-        <v>44841</v>
-      </c>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="60">
-        <v>44848</v>
-      </c>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="60">
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <v>44855</v>
       </c>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="60">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="89">
         <v>44862</v>
       </c>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="62"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="91"/>
       <c r="BB4" s="34"/>
       <c r="BC4" s="34"/>
       <c r="BD4" s="3"/>
     </row>
     <row r="5" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="65"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="65"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="93"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="92"/>
+      <c r="AP5" s="93"/>
+      <c r="AQ5" s="93"/>
+      <c r="AR5" s="94"/>
       <c r="BB5" s="34"/>
       <c r="BC5" s="34"/>
       <c r="BD5" s="3"/>
     </row>
     <row r="6" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="68"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
       <c r="I6" s="20">
         <v>1</v>
       </c>
@@ -1713,30 +1699,6 @@
         <v>3</v>
       </c>
       <c r="AR6" s="16">
-        <v>4</v>
-      </c>
-      <c r="AS6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="16">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="16">
-        <v>3</v>
-      </c>
-      <c r="AV6" s="17">
-        <v>4</v>
-      </c>
-      <c r="AW6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="16">
-        <v>2</v>
-      </c>
-      <c r="AY6" s="16">
-        <v>3</v>
-      </c>
-      <c r="AZ6" s="16">
         <v>4</v>
       </c>
       <c r="BB6" s="34"/>
@@ -1770,12 +1732,12 @@
       <c r="U7" s="22"/>
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="87"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="65"/>
       <c r="AD7" s="23"/>
       <c r="AE7" s="23"/>
       <c r="AF7" s="24"/>
@@ -1791,14 +1753,6 @@
       <c r="AP7" s="23"/>
       <c r="AQ7" s="23"/>
       <c r="AR7" s="24"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="24"/>
       <c r="BB7" s="34"/>
       <c r="BC7" s="34"/>
       <c r="BD7" s="3"/>
@@ -1828,12 +1782,12 @@
       <c r="U8" s="27"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="88"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="66"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="28"/>
       <c r="AF8" s="29"/>
@@ -1849,20 +1803,12 @@
       <c r="AP8" s="28"/>
       <c r="AQ8" s="28"/>
       <c r="AR8" s="29"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="29"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="28"/>
-      <c r="AZ8" s="29"/>
       <c r="BB8" s="34"/>
       <c r="BC8" s="34"/>
       <c r="BD8" s="3"/>
     </row>
     <row r="9" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B9" s="69">
+      <c r="B9" s="86">
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1890,12 +1836,12 @@
       <c r="U9" s="22"/>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="87"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="65"/>
       <c r="AD9" s="23"/>
       <c r="AE9" s="23"/>
       <c r="AF9" s="24"/>
@@ -1911,20 +1857,12 @@
       <c r="AP9" s="23"/>
       <c r="AQ9" s="23"/>
       <c r="AR9" s="24"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="23"/>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="23"/>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="24"/>
       <c r="BB9" s="34"/>
       <c r="BC9" s="34"/>
       <c r="BD9" s="3"/>
     </row>
     <row r="10" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="70"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1948,12 +1886,12 @@
       <c r="U10" s="25"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="89"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="67"/>
       <c r="AD10" s="21"/>
       <c r="AE10" s="21"/>
       <c r="AF10" s="26"/>
@@ -1969,20 +1907,12 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="26"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="26"/>
       <c r="BB10" s="34"/>
       <c r="BC10" s="34"/>
       <c r="BD10" s="3"/>
     </row>
     <row r="11" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
@@ -2008,12 +1938,12 @@
       <c r="U11" s="25"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="89"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="26"/>
@@ -2029,20 +1959,12 @@
       <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="26"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="26"/>
       <c r="BB11" s="34"/>
       <c r="BC11" s="34"/>
       <c r="BD11" s="3"/>
     </row>
     <row r="12" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2066,12 +1988,12 @@
       <c r="U12" s="27"/>
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="88"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="66"/>
       <c r="AD12" s="28"/>
       <c r="AE12" s="28"/>
       <c r="AF12" s="29"/>
@@ -2087,20 +2009,12 @@
       <c r="AP12" s="28"/>
       <c r="AQ12" s="28"/>
       <c r="AR12" s="29"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="29"/>
       <c r="BB12" s="34"/>
       <c r="BC12" s="34"/>
       <c r="BD12" s="3"/>
     </row>
     <row r="13" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
@@ -2126,12 +2040,12 @@
       <c r="U13" s="22"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="87"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="65"/>
       <c r="AD13" s="23"/>
       <c r="AE13" s="23"/>
       <c r="AF13" s="24"/>
@@ -2147,20 +2061,12 @@
       <c r="AP13" s="23"/>
       <c r="AQ13" s="23"/>
       <c r="AR13" s="24"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="22"/>
-      <c r="AX13" s="23"/>
-      <c r="AY13" s="23"/>
-      <c r="AZ13" s="24"/>
       <c r="BB13" s="34"/>
       <c r="BC13" s="34"/>
       <c r="BD13" s="3"/>
     </row>
     <row r="14" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2184,12 +2090,12 @@
       <c r="U14" s="27"/>
       <c r="V14" s="28"/>
       <c r="W14" s="28"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="88"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="66"/>
       <c r="AD14" s="28"/>
       <c r="AE14" s="28"/>
       <c r="AF14" s="29"/>
@@ -2205,20 +2111,12 @@
       <c r="AP14" s="28"/>
       <c r="AQ14" s="28"/>
       <c r="AR14" s="29"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="29"/>
       <c r="BB14" s="34"/>
       <c r="BC14" s="34"/>
       <c r="BD14" s="3"/>
     </row>
     <row r="15" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B15" s="69">
+      <c r="B15" s="86">
         <v>2</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -2246,12 +2144,12 @@
       <c r="U15" s="22"/>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="87"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="65"/>
       <c r="AD15" s="23"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="24"/>
@@ -2267,20 +2165,12 @@
       <c r="AP15" s="23"/>
       <c r="AQ15" s="23"/>
       <c r="AR15" s="24"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="22"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="24"/>
       <c r="BB15" s="34"/>
       <c r="BC15" s="34"/>
       <c r="BD15" s="3"/>
     </row>
     <row r="16" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="70"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2304,12 +2194,12 @@
       <c r="U16" s="25"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="89"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="67"/>
       <c r="AD16" s="21"/>
       <c r="AE16" s="21"/>
       <c r="AF16" s="26"/>
@@ -2325,20 +2215,12 @@
       <c r="AP16" s="21"/>
       <c r="AQ16" s="21"/>
       <c r="AR16" s="26"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="26"/>
       <c r="BB16" s="34"/>
       <c r="BC16" s="34"/>
       <c r="BD16" s="3"/>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="14" t="s">
         <v>11</v>
       </c>
@@ -2364,12 +2246,12 @@
       <c r="U17" s="25"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="89"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="67"/>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
       <c r="AF17" s="26"/>
@@ -2385,20 +2267,12 @@
       <c r="AP17" s="21"/>
       <c r="AQ17" s="21"/>
       <c r="AR17" s="26"/>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="26"/>
       <c r="BB17" s="34"/>
       <c r="BC17" s="34"/>
       <c r="BD17" s="3"/>
     </row>
     <row r="18" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="70"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2422,12 +2296,12 @@
       <c r="U18" s="25"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="100"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="89"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="67"/>
       <c r="AD18" s="21"/>
       <c r="AE18" s="21"/>
       <c r="AF18" s="26"/>
@@ -2443,20 +2317,12 @@
       <c r="AP18" s="21"/>
       <c r="AQ18" s="21"/>
       <c r="AR18" s="26"/>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="26"/>
       <c r="BB18" s="34"/>
       <c r="BC18" s="34"/>
       <c r="BD18" s="3"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="14" t="s">
         <v>12</v>
       </c>
@@ -2482,12 +2348,12 @@
       <c r="U19" s="25"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="100"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="89"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="67"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
       <c r="AF19" s="26"/>
@@ -2503,20 +2369,12 @@
       <c r="AP19" s="21"/>
       <c r="AQ19" s="21"/>
       <c r="AR19" s="26"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="26"/>
       <c r="BB19" s="34"/>
       <c r="BC19" s="34"/>
       <c r="BD19" s="3"/>
     </row>
     <row r="20" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="70"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2540,12 +2398,12 @@
       <c r="U20" s="25"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="89"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="67"/>
       <c r="AD20" s="21"/>
       <c r="AE20" s="21"/>
       <c r="AF20" s="26"/>
@@ -2561,20 +2419,12 @@
       <c r="AP20" s="21"/>
       <c r="AQ20" s="21"/>
       <c r="AR20" s="26"/>
-      <c r="AS20" s="25"/>
-      <c r="AT20" s="21"/>
-      <c r="AU20" s="21"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="26"/>
       <c r="BB20" s="34"/>
       <c r="BC20" s="34"/>
       <c r="BD20" s="3"/>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="14" t="s">
         <v>13</v>
       </c>
@@ -2599,13 +2449,13 @@
       <c r="T21" s="26"/>
       <c r="U21" s="55"/>
       <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="89"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="67"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="21"/>
       <c r="AF21" s="26"/>
@@ -2621,20 +2471,12 @@
       <c r="AP21" s="21"/>
       <c r="AQ21" s="21"/>
       <c r="AR21" s="26"/>
-      <c r="AS21" s="25"/>
-      <c r="AT21" s="21"/>
-      <c r="AU21" s="21"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="21"/>
-      <c r="AZ21" s="26"/>
       <c r="BB21" s="34"/>
       <c r="BC21" s="34"/>
       <c r="BD21" s="3"/>
     </row>
     <row r="22" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="70"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2658,12 +2500,12 @@
       <c r="U22" s="25"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="100"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="89"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="67"/>
       <c r="AD22" s="21"/>
       <c r="AE22" s="21"/>
       <c r="AF22" s="26"/>
@@ -2679,20 +2521,12 @@
       <c r="AP22" s="21"/>
       <c r="AQ22" s="21"/>
       <c r="AR22" s="26"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="26"/>
       <c r="BB22" s="34"/>
       <c r="BC22" s="34"/>
       <c r="BD22" s="3"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
@@ -2717,14 +2551,14 @@
       <c r="T23" s="26"/>
       <c r="U23" s="25"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="21"/>
       <c r="AE23" s="21"/>
       <c r="AF23" s="26"/>
       <c r="AG23" s="25"/>
@@ -2739,20 +2573,12 @@
       <c r="AP23" s="21"/>
       <c r="AQ23" s="21"/>
       <c r="AR23" s="26"/>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="25"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="26"/>
       <c r="BB23" s="34"/>
       <c r="BC23" s="34"/>
       <c r="BD23" s="3"/>
     </row>
     <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="70"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2776,12 +2602,12 @@
       <c r="U24" s="25"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="89"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="67"/>
       <c r="AD24" s="21"/>
       <c r="AE24" s="21"/>
       <c r="AF24" s="26"/>
@@ -2797,20 +2623,12 @@
       <c r="AP24" s="21"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="26"/>
-      <c r="AS24" s="25"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="25"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="26"/>
       <c r="BB24" s="34"/>
       <c r="BC24" s="34"/>
       <c r="BD24" s="3"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="14" t="s">
         <v>19</v>
       </c>
@@ -2836,14 +2654,14 @@
       <c r="U25" s="25"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="100"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="89"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="107"/>
       <c r="AD25" s="21"/>
-      <c r="AE25" s="59"/>
+      <c r="AE25" s="21"/>
       <c r="AF25" s="26"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="21"/>
@@ -2857,20 +2675,12 @@
       <c r="AP25" s="21"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="26"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="26"/>
       <c r="BB25" s="34"/>
       <c r="BC25" s="34"/>
       <c r="BD25" s="3"/>
     </row>
     <row r="26" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="71"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2894,12 +2704,12 @@
       <c r="U26" s="27"/>
       <c r="V26" s="28"/>
       <c r="W26" s="28"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="88"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="66"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="28"/>
       <c r="AF26" s="29"/>
@@ -2915,21 +2725,13 @@
       <c r="AP26" s="28"/>
       <c r="AQ26" s="28"/>
       <c r="AR26" s="29"/>
-      <c r="AS26" s="27"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="29"/>
-      <c r="AW26" s="27"/>
-      <c r="AX26" s="28"/>
-      <c r="AY26" s="28"/>
-      <c r="AZ26" s="29"/>
       <c r="BB26" s="34"/>
       <c r="BC26" s="34"/>
       <c r="BD26" s="3"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="69">
+      <c r="B27" s="86">
         <v>3</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -2957,19 +2759,19 @@
       <c r="U27" s="22"/>
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="23"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="48"/>
       <c r="AE27" s="23"/>
       <c r="AF27" s="24"/>
       <c r="AG27" s="22"/>
       <c r="AH27" s="23"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="51"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="24"/>
       <c r="AK27" s="22"/>
       <c r="AL27" s="23"/>
       <c r="AM27" s="23"/>
@@ -2978,14 +2780,6 @@
       <c r="AP27" s="23"/>
       <c r="AQ27" s="23"/>
       <c r="AR27" s="24"/>
-      <c r="AS27" s="22"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
-      <c r="AV27" s="24"/>
-      <c r="AW27" s="22"/>
-      <c r="AX27" s="23"/>
-      <c r="AY27" s="23"/>
-      <c r="AZ27" s="24"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="34"/>
       <c r="BC27" s="34"/>
@@ -2993,7 +2787,7 @@
     </row>
     <row r="28" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="70"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -3017,12 +2811,12 @@
       <c r="U28" s="25"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="89"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="67"/>
       <c r="AD28" s="21"/>
       <c r="AE28" s="21"/>
       <c r="AF28" s="26"/>
@@ -3038,14 +2832,6 @@
       <c r="AP28" s="21"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="26"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="21"/>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="21"/>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="26"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="34"/>
       <c r="BC28" s="34"/>
@@ -3053,7 +2839,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="70"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="14" t="s">
         <v>16</v>
       </c>
@@ -3079,42 +2865,34 @@
       <c r="U29" s="25"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="89"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="78"/>
+      <c r="AC29" s="67"/>
       <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="25"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="55"/>
       <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="26"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="49"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="26"/>
       <c r="AO29" s="25"/>
       <c r="AP29" s="21"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="26"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="21"/>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="26"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="8"/>
       <c r="BC29" s="8"/>
       <c r="BD29" s="3"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="70"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -3138,12 +2916,12 @@
       <c r="U30" s="25"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="100"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="89"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="77"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="67"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="26"/>
@@ -3159,20 +2937,12 @@
       <c r="AP30" s="21"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="26"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="26"/>
       <c r="BB30" s="8"/>
       <c r="BC30" s="8"/>
       <c r="BD30" s="3"/>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B31" s="70"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="14" t="s">
         <v>25</v>
       </c>
@@ -3198,41 +2968,33 @@
       <c r="U31" s="25"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="89"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="67"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
       <c r="AF31" s="26"/>
       <c r="AG31" s="25"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="25"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="55"/>
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="26"/>
-      <c r="AO31" s="55"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="25"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="26"/>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="26"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="26"/>
       <c r="BB31" s="8"/>
       <c r="BC31" s="8"/>
       <c r="BD31" s="3"/>
     </row>
     <row r="32" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3256,12 +3018,12 @@
       <c r="U32" s="25"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
-      <c r="X32" s="83"/>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="89"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="78"/>
+      <c r="AC32" s="67"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
       <c r="AF32" s="26"/>
@@ -3277,20 +3039,12 @@
       <c r="AP32" s="21"/>
       <c r="AQ32" s="21"/>
       <c r="AR32" s="26"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="26"/>
       <c r="BB32" s="34"/>
       <c r="BC32" s="34"/>
       <c r="BD32" s="3"/>
     </row>
     <row r="33" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B33" s="70"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="14" t="s">
         <v>17</v>
       </c>
@@ -3316,12 +3070,12 @@
       <c r="U33" s="25"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
-      <c r="X33" s="83"/>
-      <c r="Y33" s="99"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="100"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="89"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="78"/>
+      <c r="AC33" s="67"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
       <c r="AF33" s="26"/>
@@ -3330,27 +3084,19 @@
       <c r="AI33" s="21"/>
       <c r="AJ33" s="26"/>
       <c r="AK33" s="25"/>
-      <c r="AL33" s="21"/>
-      <c r="AM33" s="21"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
       <c r="AN33" s="26"/>
       <c r="AO33" s="25"/>
       <c r="AP33" s="21"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="26"/>
-      <c r="AS33" s="55"/>
-      <c r="AT33" s="54"/>
-      <c r="AU33" s="54"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="26"/>
       <c r="BB33" s="34"/>
       <c r="BC33" s="34"/>
       <c r="BD33" s="3"/>
     </row>
     <row r="34" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="70"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -3374,12 +3120,12 @@
       <c r="U34" s="31"/>
       <c r="V34" s="32"/>
       <c r="W34" s="32"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="100"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="91"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="78"/>
+      <c r="AC34" s="68"/>
       <c r="AD34" s="32"/>
       <c r="AE34" s="32"/>
       <c r="AF34" s="33"/>
@@ -3395,19 +3141,11 @@
       <c r="AP34" s="32"/>
       <c r="AQ34" s="32"/>
       <c r="AR34" s="33"/>
-      <c r="AS34" s="31"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="31"/>
-      <c r="AX34" s="32"/>
-      <c r="AY34" s="32"/>
-      <c r="AZ34" s="33"/>
       <c r="BB34" s="34"/>
       <c r="BC34" s="34"/>
     </row>
     <row r="35" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B35" s="70"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="14" t="s">
         <v>19</v>
       </c>
@@ -3433,12 +3171,12 @@
       <c r="U35" s="25"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
-      <c r="X35" s="83"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="100"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="89"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="77"/>
+      <c r="AB35" s="78"/>
+      <c r="AC35" s="67"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
       <c r="AF35" s="26"/>
@@ -3449,24 +3187,16 @@
       <c r="AK35" s="25"/>
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
-      <c r="AN35" s="26"/>
+      <c r="AN35" s="50"/>
       <c r="AO35" s="25"/>
       <c r="AP35" s="21"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="26"/>
-      <c r="AS35" s="25"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="50"/>
-      <c r="AW35" s="25"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="26"/>
       <c r="BB35" s="34"/>
       <c r="BC35" s="34"/>
     </row>
     <row r="36" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="71"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="4"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -3490,12 +3220,12 @@
       <c r="U36" s="27"/>
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="102"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="88"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="80"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="66"/>
       <c r="AD36" s="28"/>
       <c r="AE36" s="28"/>
       <c r="AF36" s="29"/>
@@ -3511,14 +3241,6 @@
       <c r="AP36" s="28"/>
       <c r="AQ36" s="28"/>
       <c r="AR36" s="29"/>
-      <c r="AS36" s="27"/>
-      <c r="AT36" s="28"/>
-      <c r="AU36" s="28"/>
-      <c r="AV36" s="29"/>
-      <c r="AW36" s="27"/>
-      <c r="AX36" s="28"/>
-      <c r="AY36" s="28"/>
-      <c r="AZ36" s="29"/>
       <c r="BB36" s="34"/>
       <c r="BC36" s="34"/>
     </row>
@@ -3549,12 +3271,12 @@
       <c r="U37" s="38"/>
       <c r="V37" s="39"/>
       <c r="W37" s="39"/>
-      <c r="X37" s="86"/>
-      <c r="Y37" s="105"/>
-      <c r="Z37" s="106"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="92"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="84"/>
+      <c r="AC37" s="69"/>
       <c r="AD37" s="39"/>
       <c r="AE37" s="39"/>
       <c r="AF37" s="51"/>
@@ -3565,19 +3287,11 @@
       <c r="AK37" s="38"/>
       <c r="AL37" s="39"/>
       <c r="AM37" s="39"/>
-      <c r="AN37" s="58"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="39"/>
-      <c r="AQ37" s="39"/>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="38"/>
-      <c r="AT37" s="39"/>
-      <c r="AU37" s="39"/>
-      <c r="AV37" s="40"/>
-      <c r="AW37" s="56"/>
-      <c r="AX37" s="57"/>
-      <c r="AY37" s="57"/>
-      <c r="AZ37" s="40"/>
+      <c r="AN37" s="40"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="57"/>
+      <c r="AR37" s="40"/>
     </row>
     <row r="38" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="37"/>
@@ -3604,12 +3318,12 @@
       <c r="U38" s="31"/>
       <c r="V38" s="32"/>
       <c r="W38" s="32"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="99"/>
-      <c r="Z38" s="100"/>
-      <c r="AA38" s="100"/>
-      <c r="AB38" s="101"/>
-      <c r="AC38" s="91"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="77"/>
+      <c r="AA38" s="77"/>
+      <c r="AB38" s="78"/>
+      <c r="AC38" s="68"/>
       <c r="AD38" s="32"/>
       <c r="AE38" s="32"/>
       <c r="AF38" s="33"/>
@@ -3625,17 +3339,9 @@
       <c r="AP38" s="32"/>
       <c r="AQ38" s="32"/>
       <c r="AR38" s="33"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="32"/>
-      <c r="AV38" s="33"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="32"/>
-      <c r="AY38" s="32"/>
-      <c r="AZ38" s="33"/>
     </row>
     <row r="39" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B39" s="69">
+      <c r="B39" s="86">
         <v>4</v>
       </c>
       <c r="C39" s="14" t="s">
@@ -3663,12 +3369,12 @@
       <c r="U39" s="25"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
-      <c r="X39" s="83"/>
-      <c r="Y39" s="99"/>
-      <c r="Z39" s="100"/>
-      <c r="AA39" s="100"/>
-      <c r="AB39" s="101"/>
-      <c r="AC39" s="89"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="77"/>
+      <c r="AA39" s="77"/>
+      <c r="AB39" s="78"/>
+      <c r="AC39" s="67"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
       <c r="AF39" s="26"/>
@@ -3683,18 +3389,10 @@
       <c r="AO39" s="25"/>
       <c r="AP39" s="21"/>
       <c r="AQ39" s="21"/>
-      <c r="AR39" s="26"/>
-      <c r="AS39" s="25"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="50"/>
+      <c r="AR39" s="50"/>
     </row>
     <row r="40" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="71"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -3718,12 +3416,12 @@
       <c r="U40" s="27"/>
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="102"/>
-      <c r="Z40" s="103"/>
-      <c r="AA40" s="103"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="88"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="66"/>
       <c r="AD40" s="28"/>
       <c r="AE40" s="28"/>
       <c r="AF40" s="29"/>
@@ -3739,14 +3437,6 @@
       <c r="AP40" s="28"/>
       <c r="AQ40" s="28"/>
       <c r="AR40" s="29"/>
-      <c r="AS40" s="27"/>
-      <c r="AT40" s="28"/>
-      <c r="AU40" s="28"/>
-      <c r="AV40" s="29"/>
-      <c r="AW40" s="27"/>
-      <c r="AX40" s="28"/>
-      <c r="AY40" s="28"/>
-      <c r="AZ40" s="29"/>
     </row>
     <row r="41" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3771,7 +3461,7 @@
       </c>
     </row>
     <row r="45" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="108"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="1" t="s">
         <v>27</v>
       </c>
@@ -3936,25 +3626,23 @@
       <c r="AZ50" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B9:B12"/>
+  <mergeCells count="16">
     <mergeCell ref="AO4:AR5"/>
-    <mergeCell ref="AS4:AV5"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C4:H6"/>
-    <mergeCell ref="B15:B26"/>
-    <mergeCell ref="AC4:AF5"/>
-    <mergeCell ref="AG4:AJ5"/>
-    <mergeCell ref="AK4:AN5"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="AW4:AZ5"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="I4:L5"/>
     <mergeCell ref="M4:P5"/>
     <mergeCell ref="Q4:T5"/>
     <mergeCell ref="U4:X5"/>
     <mergeCell ref="Y4:AB5"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="AK4:AN5"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C4:H6"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="AC4:AF5"/>
+    <mergeCell ref="AG4:AJ5"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B27:B36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="62" orientation="landscape" r:id="rId1"/>
